--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H2">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I2">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J2">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.410544957623401</v>
+        <v>0.4274105</v>
       </c>
       <c r="N2">
-        <v>0.410544957623401</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O2">
-        <v>0.5571659703646676</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P2">
-        <v>0.5571659703646676</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q2">
-        <v>105.010058774221</v>
+        <v>109.400666033769</v>
       </c>
       <c r="R2">
-        <v>105.010058774221</v>
+        <v>437.602664135076</v>
       </c>
       <c r="S2">
-        <v>0.245647446876016</v>
+        <v>0.1904624884406214</v>
       </c>
       <c r="T2">
-        <v>0.245647446876016</v>
+        <v>0.1415916055230618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H3">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I3">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J3">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.326300039128101</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N3">
-        <v>0.326300039128101</v>
+        <v>0.636779</v>
       </c>
       <c r="O3">
-        <v>0.4428340296353323</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P3">
-        <v>0.4428340296353323</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q3">
-        <v>83.46171509504715</v>
+        <v>54.33031922575399</v>
       </c>
       <c r="R3">
-        <v>83.46171509504715</v>
+        <v>325.9819153545239</v>
       </c>
       <c r="S3">
-        <v>0.1952399366719035</v>
+        <v>0.09458706397926618</v>
       </c>
       <c r="T3">
-        <v>0.1952399366719035</v>
+        <v>0.1054753696661287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>84.12664679814129</v>
+        <v>255.961578</v>
       </c>
       <c r="H4">
-        <v>84.12664679814129</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I4">
-        <v>0.1450077022228701</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J4">
-        <v>0.1450077022228701</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.410544957623401</v>
+        <v>0.326844</v>
       </c>
       <c r="N4">
-        <v>0.410544957623401</v>
+        <v>0.653688</v>
       </c>
       <c r="O4">
-        <v>0.5571659703646676</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P4">
-        <v>0.5571659703646676</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q4">
-        <v>34.53777064474174</v>
+        <v>83.65950599983199</v>
       </c>
       <c r="R4">
-        <v>34.53777064474174</v>
+        <v>334.638023999328</v>
       </c>
       <c r="S4">
-        <v>0.0807933571193562</v>
+        <v>0.1456480867266631</v>
       </c>
       <c r="T4">
-        <v>0.0807933571193562</v>
+        <v>0.1082761577349635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H5">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I5">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J5">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.326300039128101</v>
+        <v>0.4274105</v>
       </c>
       <c r="N5">
-        <v>0.326300039128101</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O5">
-        <v>0.4428340296353323</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P5">
-        <v>0.4428340296353323</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q5">
-        <v>27.45052814194944</v>
+        <v>38.28104522501784</v>
       </c>
       <c r="R5">
-        <v>27.45052814194944</v>
+        <v>229.686271350107</v>
       </c>
       <c r="S5">
-        <v>0.06421434510351391</v>
+        <v>0.06664587518520501</v>
       </c>
       <c r="T5">
-        <v>0.06421434510351391</v>
+        <v>0.07431775579188142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.106022765465081</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H6">
-        <v>0.106022765465081</v>
+        <v>268.695167</v>
       </c>
       <c r="I6">
-        <v>0.0001827496778790587</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J6">
-        <v>0.0001827496778790587</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.410544957623401</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N6">
-        <v>0.410544957623401</v>
+        <v>0.636779</v>
       </c>
       <c r="O6">
-        <v>0.5571659703646676</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P6">
-        <v>0.5571659703646676</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q6">
-        <v>0.04352711175497746</v>
+        <v>19.01104886078811</v>
       </c>
       <c r="R6">
-        <v>0.04352711175497746</v>
+        <v>171.099439747093</v>
       </c>
       <c r="S6">
-        <v>0.0001018219016093162</v>
+        <v>0.03309752860895997</v>
       </c>
       <c r="T6">
-        <v>0.0001018219016093162</v>
+        <v>0.05536128173664247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.106022765465081</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H7">
-        <v>0.106022765465081</v>
+        <v>268.695167</v>
       </c>
       <c r="I7">
-        <v>0.0001827496778790587</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J7">
-        <v>0.0001827496778790587</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.326300039128101</v>
+        <v>0.326844</v>
       </c>
       <c r="N7">
-        <v>0.326300039128101</v>
+        <v>0.653688</v>
       </c>
       <c r="O7">
-        <v>0.4428340296353323</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P7">
-        <v>0.4428340296353323</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q7">
-        <v>0.03459523251972541</v>
+        <v>29.27380105431601</v>
       </c>
       <c r="R7">
-        <v>0.03459523251972541</v>
+        <v>175.642806325896</v>
       </c>
       <c r="S7">
-        <v>8.09277762697425E-05</v>
+        <v>0.05096459827035869</v>
       </c>
       <c r="T7">
-        <v>8.09277762697425E-05</v>
+        <v>0.05683134264142246</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.232009818709494</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H8">
-        <v>0.232009818709494</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I8">
-        <v>0.0003999114666359399</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J8">
-        <v>0.0003999114666359399</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.410544957623401</v>
+        <v>0.4274105</v>
       </c>
       <c r="N8">
-        <v>0.410544957623401</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O8">
-        <v>0.5571659703646676</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P8">
-        <v>0.5571659703646676</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q8">
-        <v>0.09525046119030216</v>
+        <v>0.05746676642666668</v>
       </c>
       <c r="R8">
-        <v>0.09525046119030216</v>
+        <v>0.3448005985600001</v>
       </c>
       <c r="S8">
-        <v>0.0002228170603681709</v>
+        <v>0.0001000475018395262</v>
       </c>
       <c r="T8">
-        <v>0.0002228170603681709</v>
+        <v>0.0001115643809708468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.232009818709494</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H9">
-        <v>0.232009818709494</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I9">
-        <v>0.0003999114666359399</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J9">
-        <v>0.0003999114666359399</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.326300039128101</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N9">
-        <v>0.326300039128101</v>
+        <v>0.636779</v>
       </c>
       <c r="O9">
-        <v>0.4428340296353323</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P9">
-        <v>0.4428340296353323</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q9">
-        <v>0.07570481292301151</v>
+        <v>0.02853901971555555</v>
       </c>
       <c r="R9">
-        <v>0.07570481292301151</v>
+        <v>0.25685117744</v>
       </c>
       <c r="S9">
-        <v>0.000177094406267769</v>
+        <v>4.968537130297581E-05</v>
       </c>
       <c r="T9">
-        <v>0.000177094406267769</v>
+        <v>8.310728790031459E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>157.928631555363</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H10">
-        <v>157.928631555363</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I10">
-        <v>0.2722189561649261</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J10">
-        <v>0.2722189561649261</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.410544957623401</v>
+        <v>0.326844</v>
       </c>
       <c r="N10">
-        <v>0.410544957623401</v>
+        <v>0.653688</v>
       </c>
       <c r="O10">
-        <v>0.5571659703646676</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P10">
-        <v>0.5571659703646676</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q10">
-        <v>64.83680334941822</v>
+        <v>0.04394526528000001</v>
       </c>
       <c r="R10">
-        <v>64.83680334941822</v>
+        <v>0.26367159168</v>
       </c>
       <c r="S10">
-        <v>0.151671138863288</v>
+        <v>7.650707151845377E-05</v>
       </c>
       <c r="T10">
-        <v>0.151671138863288</v>
+        <v>8.531411496450237E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>157.928631555363</v>
+        <v>0.285862</v>
       </c>
       <c r="H11">
-        <v>157.928631555363</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I11">
-        <v>0.2722189561649261</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J11">
-        <v>0.2722189561649261</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.326300039128101</v>
+        <v>0.4274105</v>
       </c>
       <c r="N11">
-        <v>0.326300039128101</v>
+        <v>0.8548210000000001</v>
       </c>
       <c r="O11">
-        <v>0.4428340296353323</v>
+        <v>0.4422185568930271</v>
       </c>
       <c r="P11">
-        <v>0.4428340296353323</v>
+        <v>0.3984644485961792</v>
       </c>
       <c r="Q11">
-        <v>51.5321186559624</v>
+        <v>0.122180420351</v>
       </c>
       <c r="R11">
-        <v>51.5321186559624</v>
+        <v>0.7330825221060001</v>
       </c>
       <c r="S11">
-        <v>0.1205478173016381</v>
+        <v>0.000212711565134252</v>
       </c>
       <c r="T11">
-        <v>0.1205478173016381</v>
+        <v>0.0002371976676399856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.9775251187139</v>
+        <v>0.285862</v>
       </c>
       <c r="H12">
-        <v>81.9775251187139</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I12">
-        <v>0.1413032969197693</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J12">
-        <v>0.1413032969197693</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.410544957623401</v>
+        <v>0.2122596666666667</v>
       </c>
       <c r="N12">
-        <v>0.410544957623401</v>
+        <v>0.636779</v>
       </c>
       <c r="O12">
-        <v>0.5571659703646676</v>
+        <v>0.2196136114576696</v>
       </c>
       <c r="P12">
-        <v>0.5571659703646676</v>
+        <v>0.2968268129966699</v>
       </c>
       <c r="Q12">
-        <v>33.65545957593369</v>
+        <v>0.06067697283266666</v>
       </c>
       <c r="R12">
-        <v>33.65545957593369</v>
+        <v>0.546092755494</v>
       </c>
       <c r="S12">
-        <v>0.07872938854403003</v>
+        <v>0.0001056363517310437</v>
       </c>
       <c r="T12">
-        <v>0.07872938854403003</v>
+        <v>0.0001766948795152697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.9775251187139</v>
+        <v>0.285862</v>
       </c>
       <c r="H13">
-        <v>81.9775251187139</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I13">
-        <v>0.1413032969197693</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J13">
-        <v>0.1413032969197693</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.326300039128101</v>
+        <v>0.326844</v>
       </c>
       <c r="N13">
-        <v>0.326300039128101</v>
+        <v>0.653688</v>
       </c>
       <c r="O13">
-        <v>0.4428340296353323</v>
+        <v>0.3381678316493033</v>
       </c>
       <c r="P13">
-        <v>0.4428340296353323</v>
+        <v>0.304708738407151</v>
       </c>
       <c r="Q13">
-        <v>26.74926965386123</v>
+        <v>0.09343227952800001</v>
       </c>
       <c r="R13">
-        <v>26.74926965386123</v>
+        <v>0.5605936771680001</v>
       </c>
       <c r="S13">
-        <v>0.06257390837573928</v>
+        <v>0.0001626621217652338</v>
       </c>
       <c r="T13">
-        <v>0.06257390837573928</v>
+        <v>0.0001813868271418775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>162.0686236666667</v>
+      </c>
+      <c r="H14">
+        <v>486.205871</v>
+      </c>
+      <c r="I14">
+        <v>0.2727072326181867</v>
+      </c>
+      <c r="J14">
+        <v>0.3374918978020542</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4274105</v>
+      </c>
+      <c r="N14">
+        <v>0.8548210000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.4422185568930271</v>
+      </c>
+      <c r="P14">
+        <v>0.3984644485961792</v>
+      </c>
+      <c r="Q14">
+        <v>69.26983147568184</v>
+      </c>
+      <c r="R14">
+        <v>415.618988854091</v>
+      </c>
+      <c r="S14">
+        <v>0.1205961988627056</v>
+      </c>
+      <c r="T14">
+        <v>0.1344785229633736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>162.0686236666667</v>
+      </c>
+      <c r="H15">
+        <v>486.205871</v>
+      </c>
+      <c r="I15">
+        <v>0.2727072326181867</v>
+      </c>
+      <c r="J15">
+        <v>0.3374918978020542</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2122596666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.636779</v>
+      </c>
+      <c r="O15">
+        <v>0.2196136114576696</v>
+      </c>
+      <c r="P15">
+        <v>0.2968268129966699</v>
+      </c>
+      <c r="Q15">
+        <v>34.40063203661211</v>
+      </c>
+      <c r="R15">
+        <v>309.605688329509</v>
+      </c>
+      <c r="S15">
+        <v>0.05989022022590677</v>
+      </c>
+      <c r="T15">
+        <v>0.1001766444367816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>162.0686236666667</v>
+      </c>
+      <c r="H16">
+        <v>486.205871</v>
+      </c>
+      <c r="I16">
+        <v>0.2727072326181867</v>
+      </c>
+      <c r="J16">
+        <v>0.3374918978020542</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.326844</v>
+      </c>
+      <c r="N16">
+        <v>0.653688</v>
+      </c>
+      <c r="O16">
+        <v>0.3381678316493033</v>
+      </c>
+      <c r="P16">
+        <v>0.304708738407151</v>
+      </c>
+      <c r="Q16">
+        <v>52.97115723370801</v>
+      </c>
+      <c r="R16">
+        <v>317.826943402248</v>
+      </c>
+      <c r="S16">
+        <v>0.09222081352957436</v>
+      </c>
+      <c r="T16">
+        <v>0.1028367304018991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>86.27971650000001</v>
+      </c>
+      <c r="H17">
+        <v>172.559433</v>
+      </c>
+      <c r="I17">
+        <v>0.1451798761874476</v>
+      </c>
+      <c r="J17">
+        <v>0.1197793239457127</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4274105</v>
+      </c>
+      <c r="N17">
+        <v>0.8548210000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.4422185568930271</v>
+      </c>
+      <c r="P17">
+        <v>0.3984644485961792</v>
+      </c>
+      <c r="Q17">
+        <v>36.87685676912326</v>
+      </c>
+      <c r="R17">
+        <v>147.507427076493</v>
+      </c>
+      <c r="S17">
+        <v>0.06420123533752142</v>
+      </c>
+      <c r="T17">
+        <v>0.04772780226925155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>86.27971650000001</v>
+      </c>
+      <c r="H18">
+        <v>172.559433</v>
+      </c>
+      <c r="I18">
+        <v>0.1451798761874476</v>
+      </c>
+      <c r="J18">
+        <v>0.1197793239457127</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2122596666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.636779</v>
+      </c>
+      <c r="O18">
+        <v>0.2196136114576696</v>
+      </c>
+      <c r="P18">
+        <v>0.2968268129966699</v>
+      </c>
+      <c r="Q18">
+        <v>18.3137038643845</v>
+      </c>
+      <c r="R18">
+        <v>109.882223186307</v>
+      </c>
+      <c r="S18">
+        <v>0.03188347692050269</v>
+      </c>
+      <c r="T18">
+        <v>0.03555371498970162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>86.27971650000001</v>
+      </c>
+      <c r="H19">
+        <v>172.559433</v>
+      </c>
+      <c r="I19">
+        <v>0.1451798761874476</v>
+      </c>
+      <c r="J19">
+        <v>0.1197793239457127</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.326844</v>
+      </c>
+      <c r="N19">
+        <v>0.653688</v>
+      </c>
+      <c r="O19">
+        <v>0.3381678316493033</v>
+      </c>
+      <c r="P19">
+        <v>0.304708738407151</v>
+      </c>
+      <c r="Q19">
+        <v>28.200007659726</v>
+      </c>
+      <c r="R19">
+        <v>112.800030638904</v>
+      </c>
+      <c r="S19">
+        <v>0.04909516392942347</v>
+      </c>
+      <c r="T19">
+        <v>0.03649780668675957</v>
       </c>
     </row>
   </sheetData>
